--- a/Document/text/Book1.xlsx
+++ b/Document/text/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProgramJava BKAP\E-Project\document\text\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProgramJava BKAP\E-Project\Document\text\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0513DDC-3EF4-4235-861A-BB7BFCF2CDAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1CAD47-1E49-4818-8334-5A8C771DDB53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{888C53C3-A0FA-4FE4-BDC4-86CD6C505A03}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="116">
   <si>
     <t>cở sở dữ liệu Phần mềm quản lý cửa hàng</t>
   </si>
@@ -339,9 +339,6 @@
     <t>nội dung cảm nhận về sản phẩm</t>
   </si>
   <si>
-    <t>salary</t>
-  </si>
-  <si>
     <t>email khách hàng</t>
   </si>
   <si>
@@ -352,6 +349,36 @@
   </si>
   <si>
     <t>id_parent</t>
+  </si>
+  <si>
+    <t>permision</t>
+  </si>
+  <si>
+    <t>primary key, identity</t>
+  </si>
+  <si>
+    <t>chỉ mục quyền</t>
+  </si>
+  <si>
+    <t>tên quyền</t>
+  </si>
+  <si>
+    <t>mã quyền</t>
+  </si>
+  <si>
+    <t>user_permision</t>
+  </si>
+  <si>
+    <t>id_user</t>
+  </si>
+  <si>
+    <t>id_per</t>
+  </si>
+  <si>
+    <t>chỉ mục người dùng</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -459,20 +486,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -481,6 +496,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -797,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450F4389-CE54-486F-902D-4A69CC3A60F4}">
   <dimension ref="A2:U65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,39 +839,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
     </row>
     <row r="3" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="G3" s="10" t="s">
+      <c r="B3" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="G3" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="10"/>
+      <c r="H3" s="12"/>
     </row>
     <row r="5" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -940,7 +965,7 @@
         <v>19</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>7</v>
@@ -949,7 +974,7 @@
         <v>56</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -1057,10 +1082,10 @@
       <c r="D13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="10"/>
+      <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -1117,8 +1142,10 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
+      <c r="B17" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="8"/>
       <c r="F17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1147,10 +1174,18 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="A19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="F19" s="4" t="s">
         <v>73</v>
       </c>
@@ -1165,10 +1200,18 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
+      <c r="A20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="F20" s="3" t="s">
         <v>52</v>
       </c>
@@ -1183,10 +1226,16 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
+      <c r="A21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="F21" s="3" t="s">
         <v>77</v>
       </c>
@@ -1201,10 +1250,16 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
+      <c r="A22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="F22" s="3" t="s">
         <v>15</v>
       </c>
@@ -1219,10 +1274,18 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
+      <c r="A23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F23" s="3" t="s">
         <v>80</v>
       </c>
@@ -1237,10 +1300,18 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+      <c r="A24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="F24" s="1" t="s">
         <v>35</v>
       </c>
@@ -1255,10 +1326,6 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
       <c r="F25" s="1" t="s">
         <v>27</v>
       </c>
@@ -1273,6 +1340,10 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
       <c r="F26" s="1" t="s">
         <v>28</v>
       </c>
@@ -1287,14 +1358,14 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="G28" s="11" t="s">
+      <c r="C28" s="13"/>
+      <c r="G28" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="H28" s="11"/>
+      <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
@@ -1485,10 +1556,10 @@
       <c r="D37" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G37" s="11" t="s">
+      <c r="G37" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="H37" s="11"/>
+      <c r="H37" s="8"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -1694,19 +1765,19 @@
       <c r="H45" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I45" s="1" t="s">
-        <v>31</v>
+      <c r="I45" s="14" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="11"/>
-      <c r="G48" s="11" t="s">
+      <c r="C48" s="8"/>
+      <c r="G48" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="H48" s="11"/>
+      <c r="H48" s="8"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
@@ -1842,14 +1913,14 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B56" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C56" s="14"/>
-      <c r="G56" s="11" t="s">
+      <c r="B56" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="10"/>
+      <c r="G56" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="H56" s="11"/>
+      <c r="H56" s="8"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
@@ -1878,10 +1949,18 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
+      <c r="A58" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="F58" s="1" t="s">
         <v>6</v>
       </c>
@@ -1896,10 +1975,18 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
+      <c r="A59" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="F59" s="1" t="s">
         <v>15</v>
       </c>
@@ -1910,7 +1997,7 @@
         <v>13</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -1968,7 +2055,7 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="8"/>
+      <c r="A63" s="7"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -1986,10 +2073,10 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
       <c r="F64" s="1" t="s">
         <v>28</v>
       </c>
@@ -2004,18 +2091,13 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="G48:H48"/>
     <mergeCell ref="A2:U2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B17:C17"/>
@@ -2023,6 +2105,11 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="G48:H48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
